--- a/src/quiz.xlsx
+++ b/src/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanay\Documents\Projects\sorayusya-quiz\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228EB7E-FACE-434D-BF90-420B9CBC502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C208B1-B37F-45A7-9ECE-BEB25EF64059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="525" windowWidth="21600" windowHeight="11310" xr2:uid="{F945E810-9488-4D86-8468-4EDE56837C64}"/>
+    <workbookView xWindow="19785" yWindow="435" windowWidth="27225" windowHeight="16620" xr2:uid="{F945E810-9488-4D86-8468-4EDE56837C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="274">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -2012,6 +2012,316 @@
   </si>
   <si>
     <t>のび太の巨獣2006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明（解答から選ぶ）止水</t>
+    <rPh sb="0" eb="1">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杭</t>
+    <rPh sb="0" eb="1">
+      <t>クイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミコンゲーム「たけしの挑戦状」を発売したメーカーは？</t>
+    <rPh sb="13" eb="16">
+      <t>チョウセンジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポニーキャニオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナムコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVドラマ化もされた少女漫画家・岡田あーみんのデビュー作は？</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>ショウジョマンガカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お父さんは心配症</t>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お姉さんは心配性</t>
+    <rPh sb="1" eb="2">
+      <t>ネエ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンパイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お兄さんは心配性</t>
+    <rPh sb="1" eb="2">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンパイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お母さんは心配性</t>
+    <rPh sb="1" eb="2">
+      <t>カア</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンパイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食パンの正式名称は？</t>
+    <rPh sb="0" eb="1">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>セイシキメイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主食用パン</t>
+    <rPh sb="0" eb="3">
+      <t>シュショクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食用パン</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常食用パン</t>
+    <rPh sb="0" eb="4">
+      <t>ヒジョウショクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷凍パン</t>
+    <rPh sb="0" eb="2">
+      <t>レイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ「名探偵コナン」で千葉刑事役を演じている声優は？</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>チバケイジヤク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉一伸</t>
+    <rPh sb="0" eb="4">
+      <t>チバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉繁</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シゲル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉進歩</t>
+    <rPh sb="0" eb="4">
+      <t>チバシンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉千恵巳</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チエミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（解答から選ぶ）の不養生</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フヨウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者</t>
+    <rPh sb="0" eb="2">
+      <t>イシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行員</t>
+    <rPh sb="0" eb="3">
+      <t>ギンコウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俳優</t>
+    <rPh sb="0" eb="2">
+      <t>ハイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横山光輝の漫画「鉄人28号」で金田正太郎が鉄人28号を操作する道具は？</t>
+    <rPh sb="5" eb="7">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テツジン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カネダ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウタロウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テツジン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡声器</t>
+    <rPh sb="0" eb="3">
+      <t>カクセイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手旗信号</t>
+    <rPh sb="0" eb="4">
+      <t>テバタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕時計型無線機</t>
+    <rPh sb="0" eb="4">
+      <t>ウデドケイガタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ムセンキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2376,9 +2686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB83080-4664-48D9-BA53-90C9A256C269}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3253,6 +3565,125 @@
         <v>237</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
